--- a/branches/master/StructureDefinition-resource-create-updateat-datetime.xlsx
+++ b/branches/master/StructureDefinition-resource-create-updateat-datetime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:30:43+00:00</t>
+    <t>2022-05-03T19:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
